--- a/resources/ModelPlans.xlsx
+++ b/resources/ModelPlans.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
-    <sheet name="views" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="views" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -82,6 +83,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Larry:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+I have a question on user model profiles or types. </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -111,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
   <si>
     <t>make</t>
   </si>
@@ -299,14 +324,17 @@
     <t>Length of time since last serviced Years_? Month_?</t>
   </si>
   <si>
-    <t>Service class: Neccessity?</t>
+    <t>Service class: Neccessary?</t>
+  </si>
+  <si>
+    <t>&lt;---foreign key---user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +377,19 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -713,7 +754,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,7 +1028,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="7:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17"/>
       <c r="G17" s="6" t="s">
         <v>61</v>
       </c>
@@ -1000,10 +1042,222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="G17" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/resources/ModelPlans.xlsx
+++ b/resources/ModelPlans.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
   <si>
     <t>make</t>
   </si>
@@ -328,13 +328,470 @@
   </si>
   <si>
     <t>&lt;---foreign key---user</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>&lt;---foreign key---User</t>
+  </si>
+  <si>
+    <t>make (drop-down)</t>
+  </si>
+  <si>
+    <t>model  (drop-down)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serial NO. </t>
+  </si>
+  <si>
+    <t>client accountNo.</t>
+  </si>
+  <si>
+    <t>from django import forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ),</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Video'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, (</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'vhs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'VHS Tape'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'dvd'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'DVD'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'unknown'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Unknown'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MODEL_CHOICES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Model'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, (</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'grand'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Grand'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'upright'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Upright'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'studio'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Studio'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'spinet'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFBA2121"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Spinet'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0C4B33"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +848,30 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0C4B33"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFBA2121"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -424,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -434,6 +915,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1043,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1538,7 @@
     <col min="2" max="2" width="22.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" customWidth="1"/>
     <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" customWidth="1"/>
     <col min="7" max="7" width="25.88671875" customWidth="1"/>
     <col min="8" max="8" width="21.109375" customWidth="1"/>
@@ -1092,10 +1576,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1115,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1135,7 +1619,7 @@
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1155,7 +1639,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>34</v>
@@ -1174,9 +1658,6 @@
       <c r="D6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
@@ -1191,6 +1672,12 @@
       <c r="C7" t="s">
         <v>43</v>
       </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
@@ -1213,6 +1700,9 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
@@ -1229,23 +1719,90 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
+      <c r="E11" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="F12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-      <c r="G17" s="6"/>
+      <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="E19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/ModelPlans.xlsx
+++ b/resources/ModelPlans.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="model2" sheetId="3" r:id="rId2"/>
     <sheet name="views" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>make</t>
   </si>
@@ -352,186 +352,6 @@
   </si>
   <si>
     <t xml:space="preserve">        )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ),</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBA2121"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Video'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0C4B33"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, (</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBA2121"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'vhs'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0C4B33"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBA2121"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'VHS Tape'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0C4B33"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>),</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBA2121"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'dvd'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0C4B33"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBA2121"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'DVD'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0C4B33"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>),</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBA2121"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'unknown'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0C4B33"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFBA2121"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Unknown'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0C4B33"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>),</t>
-    </r>
-  </si>
-  <si>
-    <t>)</t>
   </si>
   <si>
     <r>
@@ -1236,9 +1056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1720,7 +1540,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
@@ -1728,7 +1548,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
         <v>30</v>
@@ -1736,7 +1556,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
@@ -1744,17 +1564,17 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E15" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -1764,45 +1584,31 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19"/>
-      <c r="E19" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="E19" s="7"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E23" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E24" s="7" t="s">
-        <v>76</v>
-      </c>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E25" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="E25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1814,7 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/resources/ModelPlans.xlsx
+++ b/resources/ModelPlans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
   <si>
     <t>make</t>
   </si>
@@ -605,6 +605,30 @@
   </si>
   <si>
     <t xml:space="preserve">    )</t>
+  </si>
+  <si>
+    <t>accountID</t>
+  </si>
+  <si>
+    <t>preferred Date and Time (field)</t>
+  </si>
+  <si>
+    <t>pick a day of the week (list)</t>
+  </si>
+  <si>
+    <t>Time (List)</t>
+  </si>
+  <si>
+    <t>class Schedule(models.Model</t>
+  </si>
+  <si>
+    <t>Get User data</t>
+  </si>
+  <si>
+    <t>Get Piano data</t>
+  </si>
+  <si>
+    <t>Get all necessary fields related to User</t>
   </si>
 </sst>
 </file>
@@ -693,7 +717,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,6 +736,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -725,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -738,6 +774,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1056,9 +1100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1146,7 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
@@ -1125,7 +1169,7 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -1148,7 +1192,7 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -1171,7 +1215,7 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D5" t="s">
@@ -1194,7 +1238,7 @@
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
@@ -1217,7 +1261,7 @@
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D7" t="s">
@@ -1234,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
@@ -1248,7 +1292,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
@@ -1262,7 +1306,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
@@ -1276,7 +1320,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
@@ -1349,15 +1393,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" customWidth="1"/>
     <col min="7" max="7" width="25.88671875" customWidth="1"/>
@@ -1392,16 +1436,16 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
@@ -1412,16 +1456,16 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
@@ -1432,53 +1476,54 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="s">
@@ -1489,16 +1534,16 @@
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H7" t="s">
@@ -1506,10 +1551,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="H8" t="s">
@@ -1517,73 +1566,95 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="9" t="s">
         <v>78</v>
       </c>
     </row>

--- a/resources/ModelPlans.xlsx
+++ b/resources/ModelPlans.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
   <si>
     <t>make</t>
   </si>
@@ -629,13 +629,25 @@
   </si>
   <si>
     <t>Get all necessary fields related to User</t>
+  </si>
+  <si>
+    <t>Plan use of QuerySets ; https://docs.djangoproject.com/en/1.11/ref/models/querysets/</t>
+  </si>
+  <si>
+    <t>Service Record class</t>
+  </si>
+  <si>
+    <t>QuerySets</t>
+  </si>
+  <si>
+    <t>Piano Key Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,8 +728,16 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +768,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -761,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -784,6 +810,8 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1393,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,8 +1432,8 @@
     <col min="4" max="4" width="40.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="8" max="8" width="74" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1429,7 +1457,7 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1448,8 +1476,8 @@
       <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>58</v>
+      <c r="H2" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1468,8 +1496,8 @@
       <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
-        <v>59</v>
+      <c r="H3" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1485,11 +1513,11 @@
       <c r="E4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1505,11 +1533,8 @@
       <c r="E5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
+      <c r="H5" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1524,10 +1549,10 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1543,11 +1568,11 @@
       <c r="E7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
+      <c r="F7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1559,10 +1584,10 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1573,7 +1598,10 @@
         <v>70</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1585,7 +1613,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1599,7 +1627,10 @@
         <v>72</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1610,7 +1641,7 @@
         <v>73</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1621,7 +1652,7 @@
         <v>74</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1631,6 +1662,9 @@
       <c r="E14" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="F14" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
@@ -1638,6 +1672,9 @@
       </c>
       <c r="E15" s="9" t="s">
         <v>76</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">

--- a/resources/ModelPlans.xlsx
+++ b/resources/ModelPlans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="views" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <customWorkbookViews>
+    <customWorkbookView name="test view" guid="{76913971-67C4-4476-9D86-B282FFDABD34}" xWindow="61" windowWidth="1196" windowHeight="718" activeSheetId="3"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -136,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
   <si>
     <t>make</t>
   </si>
@@ -641,6 +644,69 @@
   </si>
   <si>
     <t>Piano Key Services</t>
+  </si>
+  <si>
+    <t>Tunings</t>
+  </si>
+  <si>
+    <t>Repairs</t>
+  </si>
+  <si>
+    <t>Regulations</t>
+  </si>
+  <si>
+    <t>services dates</t>
+  </si>
+  <si>
+    <t>service costs</t>
+  </si>
+  <si>
+    <t>migrate LDPS client to GPS db</t>
+  </si>
+  <si>
+    <t>Db migration future state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technician Table</t>
+  </si>
+  <si>
+    <t>Appraisal notes</t>
+  </si>
+  <si>
+    <t>recommended services</t>
+  </si>
+  <si>
+    <t>How many piano players</t>
+  </si>
+  <si>
+    <t>Notes on client(s): who plays, how many</t>
+  </si>
+  <si>
+    <t>record entry</t>
+  </si>
+  <si>
+    <t>miles_clients</t>
+  </si>
+  <si>
+    <t>TechAdminapp</t>
+  </si>
+  <si>
+    <t>Page Title: Great Piano Service</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Tech admin sited login page</t>
+  </si>
+  <si>
+    <t>User account login page</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>This will be page for Users and Technicians</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
@@ -1411,18 +1477,26 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{76913971-67C4-4476-9D86-B282FFDABD34}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,9 +1508,11 @@
     <col min="6" max="6" width="22.5546875" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" customWidth="1"/>
     <col min="8" max="8" width="74" customWidth="1"/>
+    <col min="9" max="9" width="40.21875" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1459,8 +1535,14 @@
       <c r="H1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1479,8 +1561,14 @@
       <c r="H2" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1496,11 +1584,14 @@
       <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1516,11 +1607,14 @@
       <c r="F4" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1533,11 +1627,14 @@
       <c r="E5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1551,11 +1648,11 @@
       <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1571,11 +1668,11 @@
       <c r="F7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1586,11 +1683,11 @@
       <c r="F8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1600,13 +1697,13 @@
       <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H9" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>55</v>
@@ -1615,10 +1712,13 @@
       <c r="F10" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>69</v>
@@ -1629,13 +1729,13 @@
       <c r="F11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="8" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>73</v>
@@ -1643,8 +1743,14 @@
       <c r="F12" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="D13" s="6" t="s">
         <v>83</v>
       </c>
@@ -1654,8 +1760,11 @@
       <c r="F13" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="6" t="s">
         <v>81</v>
       </c>
@@ -1665,8 +1774,11 @@
       <c r="F14" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D15" s="6" t="s">
         <v>82</v>
       </c>
@@ -1676,13 +1788,19 @@
       <c r="F15" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -1719,54 +1837,91 @@
       <c r="E25" s="7"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{76913971-67C4-4476-9D86-B282FFDABD34}" topLeftCell="I1">
+      <selection activeCell="J2" sqref="J2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>33</v>
       </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{76913971-67C4-4476-9D86-B282FFDABD34}" topLeftCell="A4">
+      <selection activeCell="B15" sqref="B15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;CThis Header
+</oddHeader>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/ModelPlans.xlsx
+++ b/resources/ModelPlans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6180" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6180" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="views" sheetId="2" r:id="rId6"/>
     <sheet name="code-copy GPSapp" sheetId="5" r:id="rId7"/>
     <sheet name="code-copy Accountapp" sheetId="7" r:id="rId8"/>
-    <sheet name="code-copy Techadminapp" sheetId="8" r:id="rId9"/>
-    <sheet name="html-code" sheetId="6" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
+    <sheet name="code-copy Techadminapp" sheetId="8" r:id="rId10"/>
+    <sheet name="html-code" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
@@ -204,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="483">
   <si>
     <t>make</t>
   </si>
@@ -14147,6 +14148,74 @@
       </rPr>
       <t>&gt;</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>tuning = models.CharField(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF660099"/>
+        <rFont val="Courier New"/>
+        <charset val="1"/>
+      </rPr>
+      <t>max_length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="1"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <charset val="1"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="1"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <t># repair = models.CharField(max_length=20),</t>
+  </si>
+  <si>
+    <t># key_services = models.CharField(max_length=20),</t>
+  </si>
+  <si>
+    <t># regulation = models.CharField(max_length=20),</t>
+  </si>
+  <si>
+    <t># voicing = models.CharField(max_length=20),</t>
+  </si>
+  <si>
+    <t># cleaning = models.CharField(max_length=20),</t>
+  </si>
+  <si>
+    <t># restoration = models.CharField(max_length=20),</t>
+  </si>
+  <si>
+    <t># appraisal = models.CharField(max_length=20),</t>
+  </si>
+  <si>
+    <t># purchase_evaluation = models.CharField(max_length=20),</t>
+  </si>
+  <si>
+    <t># humidity_control = models.CharField(max_length=20),</t>
   </si>
 </sst>
 </file>
@@ -15117,6 +15186,79 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+    <col min="8" max="8" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16832,7 +16974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
@@ -18205,71 +18347,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="46" customWidth="1"/>
-    <col min="8" max="8" width="51" customWidth="1"/>
+    <col min="1" max="1" width="57.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>482</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
